--- a/定期健診フォーマット_松英会20170703.xlsx
+++ b/定期健診フォーマット_松英会20170703.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cw8\Desktop\トヨタデータ変換\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevGo\src\github.com\sei1rou\NwToToyota\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="松英会用フォーマット_定期" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="408">
   <si>
     <t>idou.sya_bg</t>
   </si>
@@ -1301,624 +1301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>企業cd</t>
-  </si>
-  <si>
-    <t>企業名</t>
-  </si>
-  <si>
-    <t>所属cd１</t>
-  </si>
-  <si>
-    <t>所属名１</t>
-  </si>
-  <si>
-    <t>所属cd２</t>
-  </si>
-  <si>
-    <t>所属名２</t>
-  </si>
-  <si>
-    <t>健診ｺｰｽ</t>
-  </si>
-  <si>
-    <t>健康保険記号</t>
-  </si>
-  <si>
-    <t>健康保険番号</t>
-  </si>
-  <si>
-    <t>社員No</t>
-  </si>
-  <si>
-    <t>ﾌﾘｶﾞﾅ</t>
-  </si>
-  <si>
-    <t>受診者名</t>
-  </si>
-  <si>
-    <t>受診番号</t>
-  </si>
-  <si>
-    <t>標準体重</t>
-  </si>
-  <si>
-    <t>BMI指数</t>
-  </si>
-  <si>
-    <t>視力5m(右)　裸眼</t>
-  </si>
-  <si>
-    <t>視力5m(右)　矯正</t>
-  </si>
-  <si>
-    <t>視力5m(左)　裸眼</t>
-  </si>
-  <si>
-    <t>視力5m(左)　矯正</t>
-  </si>
-  <si>
-    <t>聴力１０００（右）</t>
-  </si>
-  <si>
-    <t>聴力４０００（右）</t>
-  </si>
-  <si>
-    <t>聴力４０００（右）雇入</t>
-  </si>
-  <si>
-    <t>聴力１０００（左）</t>
-  </si>
-  <si>
-    <t>聴力４０００（左）</t>
-  </si>
-  <si>
-    <t>聴力４０００（左）雇入</t>
-  </si>
-  <si>
-    <t>血圧１回目（高）</t>
-  </si>
-  <si>
-    <t>血圧１回目（低）</t>
-  </si>
-  <si>
-    <t>血圧２回目（高）</t>
-  </si>
-  <si>
-    <t>血圧２回目（低）</t>
-  </si>
-  <si>
-    <t>尿蛋白定性</t>
-  </si>
-  <si>
-    <t>尿糖定性</t>
-  </si>
-  <si>
-    <t>尿ｳﾛﾋﾞﾘﾉｰｹﾞﾝ</t>
-  </si>
-  <si>
-    <t>尿PH</t>
-  </si>
-  <si>
-    <t>尿比重</t>
-  </si>
-  <si>
-    <t>尿沈渣赤血球</t>
-  </si>
-  <si>
-    <t>尿沈渣白血球</t>
-  </si>
-  <si>
-    <t>尿沈渣扁平上皮</t>
-  </si>
-  <si>
-    <t>尿沈渣硝子円柱</t>
-  </si>
-  <si>
-    <t>尿沈渣顆粒円柱</t>
-  </si>
-  <si>
-    <t>尿沈渣その他1</t>
-  </si>
-  <si>
-    <t>尿沈渣その他2</t>
-  </si>
-  <si>
-    <t>血色素量</t>
-  </si>
-  <si>
-    <t>ﾍﾏﾄｸﾘﾂﾄ</t>
-  </si>
-  <si>
-    <t>ＭＣＶ</t>
-  </si>
-  <si>
-    <t>ＭＣＨ</t>
-  </si>
-  <si>
-    <t>ＭＣＨＣ</t>
-  </si>
-  <si>
-    <t>総ｺﾚｽﾃﾛｰﾙ</t>
-  </si>
-  <si>
-    <t>ＨＤＬ－Ｃ</t>
-  </si>
-  <si>
-    <t>ＬＤＬ－Ｃ</t>
-  </si>
-  <si>
-    <t>総蛋白</t>
-  </si>
-  <si>
-    <t>Ａ／Ｇ比</t>
-  </si>
-  <si>
-    <t>アルブミン</t>
-  </si>
-  <si>
-    <t>総ビリルビン</t>
-  </si>
-  <si>
-    <t>ＧＯＴ</t>
-  </si>
-  <si>
-    <t>ＧＰＴ</t>
-  </si>
-  <si>
-    <t>ＡＬＰ</t>
-  </si>
-  <si>
-    <t>γ－ＧＴＰ</t>
-  </si>
-  <si>
-    <t>CＨＥ</t>
-  </si>
-  <si>
-    <t>HBs抗原判定</t>
-  </si>
-  <si>
-    <t>HCV抗体</t>
-  </si>
-  <si>
-    <t>クレアチニン</t>
-  </si>
-  <si>
-    <t>血糖検査</t>
-  </si>
-  <si>
-    <t>CRP</t>
-  </si>
-  <si>
-    <t>RPR</t>
-  </si>
-  <si>
-    <t>TPHA</t>
-  </si>
-  <si>
-    <t>PSA</t>
-  </si>
-  <si>
-    <t>CA125(旧)</t>
-  </si>
-  <si>
-    <t>ペプシノゲンⅠ</t>
-  </si>
-  <si>
-    <t>ペプシノゲンⅡ</t>
-  </si>
-  <si>
-    <t>ペプシノゲン1/2比</t>
-  </si>
-  <si>
-    <t>便潜血1日</t>
-  </si>
-  <si>
-    <t>便潜血2日</t>
-  </si>
-  <si>
-    <t>ABO式</t>
-  </si>
-  <si>
-    <t>Rh-D式</t>
-  </si>
-  <si>
-    <t>●胸部Ｘ線直接撮影</t>
-  </si>
-  <si>
-    <t>●胸部Ｘ線間接撮影</t>
-  </si>
-  <si>
-    <t>胸部Ｘ線ﾌｨﾙﾑ№</t>
-  </si>
-  <si>
-    <t>胸部所見（１）</t>
-  </si>
-  <si>
-    <t>胸部所見（２）</t>
-  </si>
-  <si>
-    <t>胸部所見（３）</t>
-  </si>
-  <si>
-    <t>肺活量（VC）</t>
-  </si>
-  <si>
-    <t>一秒率 FEV1%</t>
-  </si>
-  <si>
-    <t>％肺活量(%VC)</t>
-  </si>
-  <si>
-    <t>努力性肺活量(FVC)</t>
-  </si>
-  <si>
-    <t>●胃部Ｘ線直接撮影</t>
-  </si>
-  <si>
-    <t>●胃部Ｘ線間接撮影</t>
-  </si>
-  <si>
-    <t>胃部Ｘ線ﾌｨﾙﾑ№</t>
-  </si>
-  <si>
-    <t>胃部所見（１）</t>
-  </si>
-  <si>
-    <t>胃部所見（２）</t>
-  </si>
-  <si>
-    <t>胃部所見（３）</t>
-  </si>
-  <si>
-    <t>心電図所見（１）</t>
-  </si>
-  <si>
-    <t>心電図所見（２）</t>
-  </si>
-  <si>
-    <t>心電図所見（３）</t>
-  </si>
-  <si>
-    <t>眼圧（右）</t>
-  </si>
-  <si>
-    <t>眼圧（左）</t>
-  </si>
-  <si>
-    <t>Ｋ－Ｗ　　(右)</t>
-  </si>
-  <si>
-    <t>Ｓｃｈ（Sc）(右)</t>
-  </si>
-  <si>
-    <t>Ｓｃｈ（Hy）(右)</t>
-  </si>
-  <si>
-    <t>ＳＣＯＴＴ  (右)</t>
-  </si>
-  <si>
-    <t>Ｋ－Ｗ　　(左)</t>
-  </si>
-  <si>
-    <t>Ｓｃｈ（Sc）(左)</t>
-  </si>
-  <si>
-    <t>Ｓｃｈ（Hy）(左)</t>
-  </si>
-  <si>
-    <t>ＳＣＯＴＴ  (左)</t>
-  </si>
-  <si>
-    <t>眼底所見（１）</t>
-  </si>
-  <si>
-    <t>眼底所見（２）</t>
-  </si>
-  <si>
-    <t>眼底所見（３）</t>
-  </si>
-  <si>
-    <t>腹部ｴｺｰ所見（１）</t>
-  </si>
-  <si>
-    <t>腹部ｴｺｰ所見（２）</t>
-  </si>
-  <si>
-    <t>腹部ｴｺｰ所見（３）</t>
-  </si>
-  <si>
-    <t>腹部ｴｺｰ所見（４）</t>
-  </si>
-  <si>
-    <t>腹部ｴｺｰ所見（５）</t>
-  </si>
-  <si>
-    <t>乳房触診所見（１）</t>
-  </si>
-  <si>
-    <t>乳房触診所見（２）</t>
-  </si>
-  <si>
-    <t>乳房触診所見（３）</t>
-  </si>
-  <si>
-    <t>乳房ｴｺｰ所見（１）</t>
-  </si>
-  <si>
-    <t>乳房ｴｺｰ所見（２）</t>
-  </si>
-  <si>
-    <t>乳房ｴｺｰ所見（３）</t>
-  </si>
-  <si>
-    <t>婦人科所見(１)</t>
-  </si>
-  <si>
-    <t>婦人科所見(２)</t>
-  </si>
-  <si>
-    <t>婦人科所見(３)</t>
-  </si>
-  <si>
-    <t>頚癌クラス分類</t>
-  </si>
-  <si>
-    <t>頚癌ﾍﾞｾｽﾀﾞｼｽﾃﾑ</t>
-  </si>
-  <si>
-    <t>内科診察所見（１）</t>
-  </si>
-  <si>
-    <t>内科診察所見（２）</t>
-  </si>
-  <si>
-    <t>内科診察所見（３）</t>
-  </si>
-  <si>
-    <t>身体測定</t>
-  </si>
-  <si>
-    <t>視力</t>
-  </si>
-  <si>
-    <t>聴力</t>
-  </si>
-  <si>
-    <t>血圧</t>
-  </si>
-  <si>
-    <t>内科診察</t>
-  </si>
-  <si>
-    <t>胸部Ｘ線</t>
-  </si>
-  <si>
-    <t>胃部Ｘ線</t>
-  </si>
-  <si>
-    <t>安静心電図</t>
-  </si>
-  <si>
-    <t>眼圧</t>
-  </si>
-  <si>
-    <t>眼底</t>
-  </si>
-  <si>
-    <t>肺機能まとめ</t>
-  </si>
-  <si>
-    <t>腹部エコー</t>
-  </si>
-  <si>
-    <t>蛋白</t>
-  </si>
-  <si>
-    <t>ウロビリ</t>
-  </si>
-  <si>
-    <t>潜血</t>
-  </si>
-  <si>
-    <t>尿ＰＨ</t>
-  </si>
-  <si>
-    <t>尿沈渣まとめ</t>
-  </si>
-  <si>
-    <t>白血球まとめ</t>
-  </si>
-  <si>
-    <t>血中脂質</t>
-  </si>
-  <si>
-    <t>肝機能</t>
-  </si>
-  <si>
-    <t>糖代謝</t>
-  </si>
-  <si>
-    <t>腎機能</t>
-  </si>
-  <si>
-    <t>梅毒</t>
-  </si>
-  <si>
-    <t>腫瘍ﾏｰｶｰ</t>
-  </si>
-  <si>
-    <t>PG検査</t>
-  </si>
-  <si>
-    <t>便</t>
-  </si>
-  <si>
-    <t>乳腺触診</t>
-  </si>
-  <si>
-    <t>乳腺超音波</t>
-  </si>
-  <si>
-    <t>婦人内診</t>
-  </si>
-  <si>
-    <t>子宮細胞診</t>
-  </si>
-  <si>
-    <t>メタボ判定</t>
-  </si>
-  <si>
-    <t>メタボ判定（最終）</t>
-  </si>
-  <si>
-    <t>自覚症状   1</t>
-  </si>
-  <si>
-    <t>自覚症状   2</t>
-  </si>
-  <si>
-    <t>自覚症状   3</t>
-  </si>
-  <si>
-    <t>自覚症状   4</t>
-  </si>
-  <si>
-    <t>自覚症状   5</t>
-  </si>
-  <si>
-    <t>病歴１</t>
-  </si>
-  <si>
-    <t>病歴２</t>
-  </si>
-  <si>
-    <t>病歴３</t>
-  </si>
-  <si>
-    <t>病歴４</t>
-  </si>
-  <si>
-    <t>病歴５</t>
-  </si>
-  <si>
-    <t>病歴６</t>
-  </si>
-  <si>
-    <t>病歴７</t>
-  </si>
-  <si>
-    <t>服薬（血糖）</t>
-  </si>
-  <si>
-    <t>服薬（脂質）</t>
-  </si>
-  <si>
-    <t>服薬（血圧）</t>
-  </si>
-  <si>
-    <t>既往歴（脳血管）</t>
-  </si>
-  <si>
-    <t>既往歴（心血管）</t>
-  </si>
-  <si>
-    <t>既往歴（腎不全）</t>
-  </si>
-  <si>
-    <t>喫煙習慣あり</t>
-  </si>
-  <si>
-    <t>２０才から体重増加</t>
-  </si>
-  <si>
-    <t>運動習慣あり</t>
-  </si>
-  <si>
-    <t>1年間の体重変化</t>
-  </si>
-  <si>
-    <t>早食い</t>
-  </si>
-  <si>
-    <t>就寝前夕食</t>
-  </si>
-  <si>
-    <t>夜食</t>
-  </si>
-  <si>
-    <t>朝食抜く(週3回以上)</t>
-  </si>
-  <si>
-    <t>飲酒量/日</t>
-  </si>
-  <si>
-    <t>睡眠休養が十分</t>
-  </si>
-  <si>
-    <t>20001001</t>
-  </si>
-  <si>
-    <t>トヨタアドミニスタ株式会社</t>
-  </si>
-  <si>
-    <t>2000100100000005</t>
-  </si>
-  <si>
-    <t>東京トヨタ自動車株式会社</t>
-  </si>
-  <si>
-    <t>トヨタ_雇入時</t>
-  </si>
-  <si>
-    <t>1000111112</t>
-  </si>
-  <si>
-    <t>ｲﾄｳ ｼｮｳﾀ</t>
-  </si>
-  <si>
-    <t>伊東　祥太</t>
-  </si>
-  <si>
-    <t>201701040073485</t>
-  </si>
-  <si>
-    <t>+-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t>直接撮影</t>
-  </si>
-  <si>
-    <t>異常なし</t>
-  </si>
-  <si>
-    <t>高電位</t>
-  </si>
-  <si>
-    <t>Ａ</t>
-  </si>
-  <si>
-    <t>Ｂ</t>
-  </si>
-  <si>
-    <t>Ｃ</t>
-  </si>
-  <si>
-    <t>咳・痰　頻尿・残尿感</t>
-  </si>
-  <si>
-    <t>遅い</t>
-  </si>
-  <si>
-    <t>３合以上</t>
-  </si>
-  <si>
-    <t>思う</t>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2030,22 +1412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２５文字（／で区切る）病名＋治療中</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ビョウメイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>チリョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２５文字（半角ワンスペで区切る）</t>
     <rPh sb="2" eb="4">
       <t>モジ</t>
@@ -2110,6 +1476,27 @@
   </si>
   <si>
     <t>ABC判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２５文字 病名＋治療中（半角ワンスペで区切る）</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビョウメイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>チリョウチュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2299,7 +1686,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2423,12 +1810,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -4569,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HY42"/>
+  <dimension ref="A1:HE34"/>
   <sheetViews>
     <sheetView topLeftCell="HC1" workbookViewId="0">
-      <selection activeCell="HE2" sqref="HE2"/>
+      <selection activeCell="HC32" sqref="A32:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6747,1079 +6128,100 @@
       <c r="GU16" s="21"/>
       <c r="HE16" s="20"/>
     </row>
-    <row r="17" spans="1:233">
+    <row r="17" spans="200:213">
       <c r="GR17" s="21"/>
       <c r="GT17" s="21"/>
       <c r="GU17" s="21"/>
       <c r="HE17" s="20"/>
     </row>
-    <row r="18" spans="1:233">
+    <row r="18" spans="200:213">
       <c r="GR18" s="21"/>
       <c r="GT18" s="21"/>
       <c r="GU18" s="21"/>
       <c r="HE18" s="20"/>
     </row>
-    <row r="19" spans="1:233">
+    <row r="19" spans="200:213">
       <c r="GR19" s="21"/>
       <c r="GT19" s="21"/>
       <c r="GU19" s="21"/>
       <c r="HE19" s="20"/>
     </row>
-    <row r="20" spans="1:233">
+    <row r="20" spans="200:213">
       <c r="GR20" s="21"/>
       <c r="GT20" s="21"/>
       <c r="GU20" s="21"/>
       <c r="HE20" s="20"/>
     </row>
-    <row r="21" spans="1:233">
+    <row r="21" spans="200:213">
       <c r="GR21" s="21"/>
       <c r="GT21" s="21"/>
       <c r="GU21" s="21"/>
       <c r="HE21" s="20"/>
     </row>
-    <row r="22" spans="1:233">
+    <row r="22" spans="200:213">
       <c r="GR22" s="21"/>
       <c r="GT22" s="21"/>
       <c r="GU22" s="21"/>
       <c r="HE22" s="20"/>
     </row>
-    <row r="23" spans="1:233">
+    <row r="23" spans="200:213">
       <c r="GR23" s="21"/>
       <c r="GT23" s="21"/>
       <c r="GU23" s="21"/>
       <c r="HE23" s="20"/>
     </row>
-    <row r="24" spans="1:233">
+    <row r="24" spans="200:213">
       <c r="GR24" s="21"/>
       <c r="GT24" s="21"/>
       <c r="GU24" s="21"/>
       <c r="HE24" s="20"/>
     </row>
-    <row r="25" spans="1:233">
+    <row r="25" spans="200:213">
       <c r="GR25" s="21"/>
       <c r="GT25" s="21"/>
       <c r="GU25" s="21"/>
       <c r="HE25" s="20"/>
     </row>
-    <row r="26" spans="1:233">
+    <row r="26" spans="200:213">
       <c r="GR26" s="21"/>
       <c r="GT26" s="21"/>
       <c r="GU26" s="21"/>
       <c r="HE26" s="20"/>
     </row>
-    <row r="27" spans="1:233">
+    <row r="27" spans="200:213">
       <c r="GR27" s="21"/>
       <c r="GT27" s="21"/>
       <c r="GU27" s="21"/>
       <c r="HE27" s="20"/>
     </row>
-    <row r="28" spans="1:233">
+    <row r="28" spans="200:213">
       <c r="GR28" s="21"/>
       <c r="GT28" s="21"/>
       <c r="GU28" s="21"/>
       <c r="HE28" s="20"/>
     </row>
-    <row r="29" spans="1:233">
+    <row r="29" spans="200:213">
       <c r="GR29" s="21"/>
       <c r="GT29" s="21"/>
       <c r="HE29" s="20"/>
     </row>
-    <row r="30" spans="1:233">
+    <row r="30" spans="200:213">
       <c r="GR30" s="21"/>
       <c r="GT30" s="21"/>
       <c r="HE30" s="20"/>
     </row>
-    <row r="31" spans="1:233">
+    <row r="31" spans="200:213">
       <c r="GR31" s="21"/>
       <c r="GT31" s="21"/>
     </row>
-    <row r="32" spans="1:233">
-      <c r="A32" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="B32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>388</v>
-      </c>
-      <c r="D32" t="s">
-        <v>389</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="F32" t="s">
-        <v>391</v>
-      </c>
-      <c r="G32" t="s">
-        <v>392</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="I32" t="s">
-        <v>394</v>
-      </c>
-      <c r="J32" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="K32" t="s">
-        <v>396</v>
-      </c>
-      <c r="L32" t="s">
-        <v>397</v>
-      </c>
-      <c r="M32" t="s">
-        <v>135</v>
-      </c>
-      <c r="N32" t="s">
-        <v>138</v>
-      </c>
-      <c r="O32" t="s">
-        <v>139</v>
-      </c>
-      <c r="P32" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q32" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="R32" t="s">
-        <v>148</v>
-      </c>
-      <c r="S32" t="s">
-        <v>149</v>
-      </c>
-      <c r="T32" t="s">
-        <v>399</v>
-      </c>
-      <c r="U32" t="s">
-        <v>400</v>
-      </c>
-      <c r="V32" t="s">
-        <v>152</v>
-      </c>
-      <c r="W32" t="s">
-        <v>401</v>
-      </c>
-      <c r="X32" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>410</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>411</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>412</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>413</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>415</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>418</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>419</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>420</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>421</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>422</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>423</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>424</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>425</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>426</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>427</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>428</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>429</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>430</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>431</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>187</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>432</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>165</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>433</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>434</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>435</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>436</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>437</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>438</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>439</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>440</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>441</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>442</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>443</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>444</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>445</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>180</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>446</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>447</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>448</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>449</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>450</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>451</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>452</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>453</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>454</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>455</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>456</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>457</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>458</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>459</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>460</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>461</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>462</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>463</v>
-      </c>
-      <c r="CP32" t="s">
-        <v>464</v>
-      </c>
-      <c r="CQ32" t="s">
-        <v>465</v>
-      </c>
-      <c r="CR32" t="s">
-        <v>466</v>
-      </c>
-      <c r="CS32" t="s">
-        <v>467</v>
-      </c>
-      <c r="CT32" t="s">
-        <v>468</v>
-      </c>
-      <c r="CU32" t="s">
-        <v>469</v>
-      </c>
-      <c r="CV32" t="s">
-        <v>470</v>
-      </c>
-      <c r="CW32" t="s">
-        <v>471</v>
-      </c>
-      <c r="CX32" t="s">
-        <v>472</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>473</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>474</v>
-      </c>
-      <c r="DA32" t="s">
-        <v>475</v>
-      </c>
-      <c r="DB32" t="s">
-        <v>476</v>
-      </c>
-      <c r="DC32" t="s">
-        <v>477</v>
-      </c>
-      <c r="DD32" t="s">
-        <v>478</v>
-      </c>
-      <c r="DE32" t="s">
-        <v>479</v>
-      </c>
-      <c r="DF32" t="s">
-        <v>480</v>
-      </c>
-      <c r="DG32" t="s">
-        <v>481</v>
-      </c>
-      <c r="DH32" t="s">
-        <v>482</v>
-      </c>
-      <c r="DI32" t="s">
-        <v>483</v>
-      </c>
-      <c r="DJ32" t="s">
-        <v>484</v>
-      </c>
-      <c r="DK32" t="s">
-        <v>485</v>
-      </c>
-      <c r="DL32" t="s">
-        <v>486</v>
-      </c>
-      <c r="DM32" t="s">
-        <v>487</v>
-      </c>
-      <c r="DN32" t="s">
-        <v>488</v>
-      </c>
-      <c r="DO32" t="s">
-        <v>489</v>
-      </c>
-      <c r="DP32" t="s">
-        <v>490</v>
-      </c>
-      <c r="DQ32" t="s">
-        <v>491</v>
-      </c>
-      <c r="DR32" t="s">
-        <v>492</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>493</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>494</v>
-      </c>
-      <c r="DU32" t="s">
-        <v>495</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>496</v>
-      </c>
-      <c r="DW32" t="s">
-        <v>497</v>
-      </c>
-      <c r="DX32" t="s">
-        <v>498</v>
-      </c>
-      <c r="DY32" t="s">
-        <v>499</v>
-      </c>
-      <c r="DZ32" t="s">
-        <v>500</v>
-      </c>
-      <c r="EA32" t="s">
-        <v>501</v>
-      </c>
-      <c r="EB32" t="s">
-        <v>502</v>
-      </c>
-      <c r="EC32" t="s">
-        <v>503</v>
-      </c>
-      <c r="ED32" t="s">
-        <v>504</v>
-      </c>
-      <c r="EE32" t="s">
-        <v>505</v>
-      </c>
-      <c r="EF32" t="s">
-        <v>506</v>
-      </c>
-      <c r="EG32" t="s">
-        <v>507</v>
-      </c>
-      <c r="EH32" t="s">
-        <v>508</v>
-      </c>
-      <c r="EI32" t="s">
-        <v>509</v>
-      </c>
-      <c r="EJ32" t="s">
-        <v>510</v>
-      </c>
-      <c r="EK32" t="s">
-        <v>511</v>
-      </c>
-      <c r="EL32" t="s">
-        <v>512</v>
-      </c>
-      <c r="EM32" t="s">
-        <v>405</v>
-      </c>
-      <c r="EN32" t="s">
-        <v>408</v>
-      </c>
-      <c r="EO32" t="s">
-        <v>406</v>
-      </c>
-      <c r="EP32" t="s">
-        <v>409</v>
-      </c>
-      <c r="EQ32" t="s">
-        <v>407</v>
-      </c>
-      <c r="ER32" t="s">
-        <v>410</v>
-      </c>
-      <c r="ES32" t="s">
-        <v>513</v>
-      </c>
-      <c r="ET32" t="s">
-        <v>514</v>
-      </c>
-      <c r="EU32" t="s">
-        <v>515</v>
-      </c>
-      <c r="EV32" t="s">
-        <v>516</v>
-      </c>
-      <c r="EW32" t="s">
-        <v>517</v>
-      </c>
-      <c r="EX32" t="s">
-        <v>518</v>
-      </c>
-      <c r="EY32" t="s">
-        <v>519</v>
-      </c>
-      <c r="EZ32" t="s">
-        <v>520</v>
-      </c>
-      <c r="FA32" t="s">
-        <v>521</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>522</v>
-      </c>
-      <c r="FC32" t="s">
-        <v>523</v>
-      </c>
-      <c r="FD32" t="s">
-        <v>177</v>
-      </c>
-      <c r="FE32" t="s">
-        <v>524</v>
-      </c>
-      <c r="FF32" t="s">
-        <v>525</v>
-      </c>
-      <c r="FG32" t="s">
-        <v>526</v>
-      </c>
-      <c r="FH32" t="s">
-        <v>419</v>
-      </c>
-      <c r="FI32" t="s">
-        <v>527</v>
-      </c>
-      <c r="FJ32" t="s">
-        <v>297</v>
-      </c>
-      <c r="FK32" t="s">
-        <v>528</v>
-      </c>
-      <c r="FL32" t="s">
-        <v>529</v>
-      </c>
-      <c r="FM32" t="s">
-        <v>530</v>
-      </c>
-      <c r="FN32" t="s">
-        <v>531</v>
-      </c>
-      <c r="FO32" t="s">
-        <v>532</v>
-      </c>
-      <c r="FP32" t="s">
-        <v>172</v>
-      </c>
-      <c r="FQ32" t="s">
-        <v>448</v>
-      </c>
-      <c r="FR32" t="s">
-        <v>533</v>
-      </c>
-      <c r="FS32" t="s">
-        <v>534</v>
-      </c>
-      <c r="FT32" t="s">
-        <v>535</v>
-      </c>
-      <c r="FU32" t="s">
-        <v>536</v>
-      </c>
-      <c r="FV32" t="s">
-        <v>537</v>
-      </c>
-      <c r="FW32" t="s">
-        <v>538</v>
-      </c>
-      <c r="FX32" t="s">
-        <v>539</v>
-      </c>
-      <c r="FY32" t="s">
-        <v>540</v>
-      </c>
-      <c r="FZ32" t="s">
-        <v>155</v>
-      </c>
-      <c r="GA32" t="s">
-        <v>259</v>
-      </c>
-      <c r="GB32" t="s">
-        <v>541</v>
-      </c>
-      <c r="GC32" t="s">
-        <v>542</v>
-      </c>
-      <c r="GD32" t="s">
-        <v>543</v>
-      </c>
-      <c r="GE32" t="s">
-        <v>544</v>
-      </c>
-      <c r="GF32" t="s">
-        <v>545</v>
-      </c>
-      <c r="GG32" t="s">
-        <v>546</v>
-      </c>
-      <c r="GH32" t="s">
-        <v>547</v>
-      </c>
-      <c r="GI32" t="s">
-        <v>548</v>
-      </c>
-      <c r="GJ32" t="s">
-        <v>548</v>
-      </c>
-      <c r="GK32" t="s">
-        <v>548</v>
-      </c>
-      <c r="GL32" t="s">
-        <v>549</v>
-      </c>
-      <c r="GM32" t="s">
-        <v>549</v>
-      </c>
-      <c r="GN32" t="s">
-        <v>549</v>
-      </c>
-      <c r="GO32" t="s">
-        <v>550</v>
-      </c>
-      <c r="GP32" t="s">
-        <v>550</v>
-      </c>
-      <c r="GQ32" t="s">
-        <v>550</v>
-      </c>
-      <c r="GR32" t="s">
-        <v>551</v>
-      </c>
-      <c r="GS32" t="s">
-        <v>551</v>
-      </c>
-      <c r="GT32" t="s">
-        <v>551</v>
-      </c>
-      <c r="GU32" t="s">
-        <v>552</v>
-      </c>
-      <c r="GV32" t="s">
-        <v>552</v>
-      </c>
-      <c r="GW32" t="s">
-        <v>552</v>
-      </c>
-      <c r="GX32" t="s">
-        <v>553</v>
-      </c>
-      <c r="GY32" t="s">
-        <v>553</v>
-      </c>
-      <c r="GZ32" t="s">
-        <v>553</v>
-      </c>
-      <c r="HA32" t="s">
-        <v>554</v>
-      </c>
-      <c r="HB32" t="s">
-        <v>554</v>
-      </c>
-      <c r="HC32" t="s">
-        <v>554</v>
-      </c>
-      <c r="HD32" t="s">
-        <v>555</v>
-      </c>
-      <c r="HE32" t="s">
-        <v>556</v>
-      </c>
-      <c r="HF32" t="s">
-        <v>557</v>
-      </c>
-      <c r="HG32" t="s">
-        <v>558</v>
-      </c>
-      <c r="HH32" t="s">
-        <v>559</v>
-      </c>
-      <c r="HI32" t="s">
-        <v>560</v>
-      </c>
-      <c r="HJ32" t="s">
-        <v>297</v>
-      </c>
-      <c r="HK32" t="s">
-        <v>561</v>
-      </c>
-      <c r="HL32" t="s">
-        <v>562</v>
-      </c>
-      <c r="HM32" t="s">
-        <v>563</v>
-      </c>
-      <c r="HN32" t="s">
-        <v>301</v>
-      </c>
-      <c r="HO32" t="s">
-        <v>302</v>
-      </c>
-      <c r="HP32" t="s">
-        <v>564</v>
-      </c>
-      <c r="HQ32" t="s">
-        <v>565</v>
-      </c>
-      <c r="HR32" t="s">
-        <v>566</v>
-      </c>
-      <c r="HS32" t="s">
-        <v>567</v>
-      </c>
-      <c r="HT32" t="s">
-        <v>568</v>
-      </c>
-      <c r="HU32" t="s">
-        <v>308</v>
-      </c>
-      <c r="HV32" t="s">
-        <v>569</v>
-      </c>
-      <c r="HW32" t="s">
-        <v>570</v>
-      </c>
-      <c r="HX32" t="s">
-        <v>311</v>
-      </c>
-      <c r="HY32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:233">
-      <c r="A33" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="B33" t="s">
-        <v>572</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>573</v>
-      </c>
-      <c r="D33" t="s">
-        <v>574</v>
-      </c>
-      <c r="G33" t="s">
-        <v>575</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>576</v>
-      </c>
-      <c r="K33" t="s">
-        <v>577</v>
-      </c>
-      <c r="L33" t="s">
-        <v>578</v>
-      </c>
-      <c r="M33" t="s">
-        <v>317</v>
-      </c>
-      <c r="N33" s="43">
-        <v>34149</v>
-      </c>
-      <c r="O33">
-        <v>23</v>
-      </c>
-      <c r="P33" s="44">
-        <v>42739</v>
-      </c>
-      <c r="Q33" s="42" t="s">
-        <v>579</v>
-      </c>
-      <c r="R33">
-        <v>175.7</v>
-      </c>
-      <c r="S33">
-        <v>73.5</v>
-      </c>
-      <c r="T33">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="U33">
-        <v>23.8</v>
-      </c>
-      <c r="V33">
-        <v>84.6</v>
-      </c>
-      <c r="W33">
-        <v>1.5</v>
-      </c>
-      <c r="Y33">
-        <v>0.3</v>
-      </c>
-      <c r="AA33">
-        <v>30</v>
-      </c>
-      <c r="AC33">
-        <v>30</v>
-      </c>
-      <c r="AD33">
-        <v>30</v>
-      </c>
-      <c r="AF33">
-        <v>30</v>
-      </c>
-      <c r="AG33">
-        <v>142</v>
-      </c>
-      <c r="AH33">
-        <v>80</v>
-      </c>
-      <c r="AI33">
-        <v>140</v>
-      </c>
-      <c r="AJ33">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>580</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>581</v>
-      </c>
-      <c r="AY33">
-        <v>502</v>
-      </c>
-      <c r="AZ33">
-        <v>15.5</v>
-      </c>
-      <c r="BG33">
-        <v>116</v>
-      </c>
-      <c r="BH33">
-        <v>40</v>
-      </c>
-      <c r="BI33">
-        <v>139</v>
-      </c>
-      <c r="BN33">
-        <v>19</v>
-      </c>
-      <c r="BO33">
-        <v>23</v>
-      </c>
-      <c r="BQ33">
-        <v>30</v>
-      </c>
-      <c r="BX33">
-        <v>84</v>
-      </c>
-      <c r="CL33" t="s">
-        <v>582</v>
-      </c>
-      <c r="CO33" t="s">
-        <v>583</v>
-      </c>
-      <c r="DB33" t="s">
-        <v>584</v>
-      </c>
-      <c r="EH33" t="s">
-        <v>583</v>
-      </c>
-      <c r="EK33" t="s">
-        <v>585</v>
-      </c>
-      <c r="EL33" t="s">
-        <v>586</v>
-      </c>
-      <c r="EM33" t="s">
-        <v>372</v>
-      </c>
-      <c r="EN33" t="s">
-        <v>372</v>
-      </c>
-      <c r="EQ33" t="s">
-        <v>372</v>
-      </c>
-      <c r="ER33" t="s">
-        <v>372</v>
-      </c>
-      <c r="ES33" t="s">
-        <v>585</v>
-      </c>
-      <c r="ET33" t="s">
-        <v>587</v>
-      </c>
-      <c r="EU33" t="s">
-        <v>585</v>
-      </c>
-      <c r="EV33" t="s">
-        <v>585</v>
-      </c>
-      <c r="EX33" t="s">
-        <v>586</v>
-      </c>
-      <c r="FC33" t="s">
-        <v>585</v>
-      </c>
-      <c r="FD33" t="s">
-        <v>585</v>
-      </c>
-      <c r="FJ33" t="s">
-        <v>585</v>
-      </c>
-      <c r="FL33" t="s">
-        <v>585</v>
-      </c>
-      <c r="FM33" t="s">
-        <v>585</v>
-      </c>
-      <c r="FN33" t="s">
-        <v>585</v>
-      </c>
-      <c r="GA33" t="s">
-        <v>587</v>
-      </c>
-      <c r="GD33" t="s">
-        <v>588</v>
-      </c>
-      <c r="HD33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HE33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HF33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HG33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HH33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HI33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HJ33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HK33" t="s">
-        <v>329</v>
-      </c>
-      <c r="HL33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HM33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HN33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HO33" t="s">
-        <v>329</v>
-      </c>
-      <c r="HP33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HQ33" t="s">
-        <v>589</v>
-      </c>
-      <c r="HR33" t="s">
-        <v>330</v>
-      </c>
-      <c r="HS33" t="s">
-        <v>329</v>
-      </c>
-      <c r="HT33" t="s">
-        <v>329</v>
-      </c>
-      <c r="HU33" t="s">
-        <v>370</v>
-      </c>
-      <c r="HV33" t="s">
-        <v>590</v>
-      </c>
-      <c r="HW33" t="s">
-        <v>329</v>
-      </c>
-      <c r="HX33" t="s">
-        <v>591</v>
-      </c>
-      <c r="HY33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:233">
+    <row r="32" spans="200:213">
+      <c r="GR32" s="21"/>
+    </row>
+    <row r="33" spans="200:200">
+      <c r="GR33" s="21"/>
+    </row>
+    <row r="34" spans="200:200">
       <c r="GR34" s="21"/>
-      <c r="GT34" s="21"/>
-    </row>
-    <row r="35" spans="1:233">
-      <c r="GR35" s="21"/>
-      <c r="GT35" s="21"/>
-    </row>
-    <row r="36" spans="1:233">
-      <c r="GR36" s="21"/>
-      <c r="GT36" s="21"/>
-    </row>
-    <row r="37" spans="1:233">
-      <c r="GR37" s="21"/>
-      <c r="GT37" s="21"/>
-    </row>
-    <row r="38" spans="1:233">
-      <c r="GR38" s="21"/>
-      <c r="GT38" s="21"/>
-    </row>
-    <row r="39" spans="1:233">
-      <c r="GR39" s="21"/>
-      <c r="GT39" s="21"/>
-    </row>
-    <row r="40" spans="1:233">
-      <c r="GR40" s="21"/>
-    </row>
-    <row r="41" spans="1:233">
-      <c r="GR41" s="21"/>
-    </row>
-    <row r="42" spans="1:233">
-      <c r="GR42" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7831,10 +6233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7845,3487 +6247,3503 @@
     <col min="4" max="4" width="33.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="81" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="77" t="s">
-        <v>598</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="80"/>
+      <c r="F1" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="45">
         <v>2000005200</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="45">
         <v>2000001000</v>
       </c>
-      <c r="F2" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="48" t="s">
+      <c r="F2" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="47">
         <v>541091</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <v>541091</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="47">
         <v>13550</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <v>14200</v>
       </c>
-      <c r="F4" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="48" t="s">
+      <c r="F4" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="48">
         <v>301</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="48">
         <v>301</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="48" t="s">
+      <c r="F5" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="48">
         <v>15000</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="48">
         <v>17000</v>
       </c>
-      <c r="F6" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="48" t="s">
+      <c r="F6" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="48">
         <v>0</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="48">
         <v>0</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="48" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="48">
         <v>0</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="48">
         <v>0</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="48" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>48012000005205</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <v>754002000001342</v>
       </c>
-      <c r="F9" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="52" t="s">
+      <c r="F9" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="48" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="48" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="48">
         <v>0</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="48">
         <v>0</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="48" t="s">
+      <c r="F12" s="76"/>
+      <c r="G12" s="43"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="48" t="s">
+      <c r="F13" s="76"/>
+      <c r="G13" s="43"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="53" t="s">
+      <c r="F14" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="F15" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="53" t="s">
+      <c r="F15" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="F16" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="53" t="s">
+      <c r="F16" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="52">
         <v>22375</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="52">
         <v>23477</v>
       </c>
-      <c r="F17" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="53" t="s">
+      <c r="F17" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="48">
         <v>2017</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="48">
         <v>2017</v>
       </c>
-      <c r="F18" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="55" t="s">
+      <c r="F18" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="48">
         <v>52</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="48">
         <v>53</v>
       </c>
-      <c r="F19" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="46" t="s">
+      <c r="F19" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="52">
         <v>42836</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="52">
         <v>42836</v>
       </c>
-      <c r="F20" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="53" t="s">
+      <c r="F20" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="F21" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="53" t="s">
+      <c r="F21" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="46" t="s">
+      <c r="F22" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="F23" s="80" t="s">
-        <v>592</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="53" t="s">
+      <c r="F23" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="56">
         <v>1310432385</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="56">
         <v>1310432385</v>
       </c>
-      <c r="F24" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="53" t="s">
+      <c r="F24" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="F25" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="53" t="s">
+      <c r="F25" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="F26" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="53" t="s">
+      <c r="F26" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="46" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="48">
         <v>159.80000000000001</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="48">
         <v>178.8</v>
       </c>
-      <c r="F28" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="46" t="s">
+      <c r="F28" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="48">
         <v>69.8</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="48">
         <v>73.099999999999994</v>
       </c>
-      <c r="F29" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="46" t="s">
+      <c r="F29" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="48">
         <v>27.3</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="48">
         <v>22.9</v>
       </c>
-      <c r="F30" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="53" t="s">
+      <c r="F30" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="46" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="48">
         <v>92.5</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="48">
         <v>84.5</v>
       </c>
-      <c r="F32" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G32" s="45"/>
+      <c r="F32" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="53" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="45"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="F34" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>604</v>
+      <c r="F34" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="F35" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>605</v>
+      <c r="F35" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="F36" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>605</v>
+      <c r="F36" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="48">
         <v>122</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="48">
         <v>100</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="45"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G38" s="45"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G39" s="45"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="48">
         <v>88</v>
       </c>
-      <c r="E40" s="50">
+      <c r="E40" s="48">
         <v>70</v>
       </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="45"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G41" s="45"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G41" s="43"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G42" s="45"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G43" s="45"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="53" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G44" s="45"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="48">
         <v>140</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="48">
         <v>105</v>
       </c>
-      <c r="F45" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G45" s="45"/>
+      <c r="F45" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="48">
         <v>51</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="48">
         <v>49</v>
       </c>
-      <c r="F46" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G46" s="45"/>
+      <c r="F46" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="48">
         <v>130</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="48">
         <v>140</v>
       </c>
-      <c r="F47" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G47" s="45"/>
+      <c r="F47" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="48">
         <v>37</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E48" s="48">
         <v>15</v>
       </c>
-      <c r="F48" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G48" s="45"/>
+      <c r="F48" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="48">
         <v>53</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="48">
         <v>20</v>
       </c>
-      <c r="F49" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G49" s="45"/>
+      <c r="F49" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" s="43"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="48">
         <v>29</v>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="48">
         <v>36</v>
       </c>
-      <c r="F50" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G50" s="45"/>
+      <c r="F50" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="60" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="48">
         <v>0.84</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="48">
         <v>0.93</v>
       </c>
-      <c r="F51" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G51" s="45"/>
+      <c r="F51" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="60" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="48">
         <v>6.8</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="48">
         <v>6.4</v>
       </c>
-      <c r="F52" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G52" s="45"/>
+      <c r="F52" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="48">
         <v>85</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="48">
         <v>96</v>
       </c>
-      <c r="F53" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G53" s="45"/>
+      <c r="F53" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="53" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G54" s="45"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="53" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="45"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="43"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="48">
         <v>5.4</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="48">
         <v>5.7</v>
       </c>
-      <c r="F56" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G56" s="45"/>
+      <c r="F56" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G56" s="43"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="62" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="F57" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G57" s="45"/>
+      <c r="F57" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" s="43"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="62" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="F58" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G58" s="45"/>
+      <c r="F58" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="53" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="F59" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G59" s="45"/>
+      <c r="F59" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="53" t="s">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G60" s="45"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="53" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G61" s="45"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="53" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="50">
+      <c r="D62" s="48">
         <v>48.4</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="48">
         <v>42.5</v>
       </c>
-      <c r="F62" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G62" s="45"/>
+      <c r="F62" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="48">
         <v>15.2</v>
       </c>
-      <c r="E63" s="50">
+      <c r="E63" s="48">
         <v>13.4</v>
       </c>
-      <c r="F63" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G63" s="45"/>
+      <c r="F63" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G63" s="43"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="48">
         <v>529</v>
       </c>
-      <c r="E64" s="50">
+      <c r="E64" s="48">
         <v>462</v>
       </c>
-      <c r="F64" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G64" s="45"/>
+      <c r="F64" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G64" s="43"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="53" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="45"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="43"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="53" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G66" s="45"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="53" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G67" s="45"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="53" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G68" s="45"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="F69" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>605</v>
+      <c r="F69" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="45"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="E71" s="50" t="s">
+      <c r="E71" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="F71" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G71" s="45" t="s">
-        <v>605</v>
+      <c r="F71" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="53" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G72" s="45"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" s="43"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="53" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="45"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="43"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="45"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="43"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="53" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="45"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="43"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="53" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G76" s="45"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G76" s="43"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C77" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="50">
+      <c r="D77" s="48">
         <v>0.4</v>
       </c>
-      <c r="E77" s="50">
+      <c r="E77" s="48">
         <v>0.8</v>
       </c>
-      <c r="F77" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G77" s="45" t="s">
-        <v>606</v>
+      <c r="F77" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G77" s="43" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G78" s="45"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G78" s="43"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D79" s="48">
         <v>0.7</v>
       </c>
-      <c r="E79" s="50">
+      <c r="E79" s="48">
         <v>1</v>
       </c>
-      <c r="F79" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G79" s="45"/>
+      <c r="F79" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G79" s="43"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G80" s="45"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G80" s="43"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="61"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="62" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="F81" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G81" s="45"/>
+      <c r="F81" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G81" s="43"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="62" t="s">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="F82" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G82" s="45"/>
+      <c r="F82" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G82" s="43"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="62" t="s">
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G83" s="45"/>
+      <c r="F83" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G83" s="43"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="61"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="62" t="s">
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="E84" s="50" t="s">
+      <c r="E84" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="F84" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G84" s="45"/>
+      <c r="F84" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G84" s="43"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="53" t="s">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="45"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="43"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="53" t="s">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="45"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="43"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="53" t="s">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="45"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="43"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="53" t="s">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="45"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="43"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="53" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="45"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="43"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="53" t="s">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="45"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="43"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="53" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="45"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="43"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="53" t="s">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="45"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="43"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="53" t="s">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="45"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="43"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="53" t="s">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="45"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="43"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="53" t="s">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="45"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="43"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="53" t="s">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="45"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="43"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="53" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="45"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="43"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="53" t="s">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="45"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="43"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="53" t="s">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="45"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="43"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="53" t="s">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="45"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="43"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="53" t="s">
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="45"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="43"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="53" t="s">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="45"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="43"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="53" t="s">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="45"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="43"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="53" t="s">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="45"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="43"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="53" t="s">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="E105" s="50" t="s">
+      <c r="E105" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F105" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G105" s="45" t="s">
-        <v>607</v>
+      <c r="F105" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G105" s="43" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="53" t="s">
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="50" t="s">
+      <c r="D106" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F106" s="78"/>
-      <c r="G106" s="45"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="43"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="53" t="s">
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F107" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G107" s="45"/>
+      <c r="F107" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G107" s="43"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="53" t="s">
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E108" s="50" t="s">
+      <c r="E108" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F108" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G108" s="45"/>
+      <c r="F108" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G108" s="43"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="53" t="s">
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E109" s="50" t="s">
+      <c r="E109" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F109" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G109" s="45"/>
+      <c r="F109" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G109" s="43"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="53" t="s">
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D110" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F110" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G110" s="45"/>
+      <c r="F110" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G110" s="43"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="53" t="s">
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E111" s="50" t="s">
+      <c r="E111" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F111" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G111" s="45"/>
+      <c r="F111" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G111" s="43"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="53" t="s">
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="F112" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G112" s="45"/>
+      <c r="F112" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G112" s="43"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="53" t="s">
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E113" s="50" t="s">
+      <c r="E113" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F113" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G113" s="45"/>
+      <c r="F113" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G113" s="43"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="45"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="53" t="s">
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="D114" s="50" t="s">
+      <c r="D114" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E114" s="50" t="s">
+      <c r="E114" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F114" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G114" s="45"/>
+      <c r="F114" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G114" s="43"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="45"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="53" t="s">
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D115" s="50" t="s">
+      <c r="D115" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E115" s="50" t="s">
+      <c r="E115" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F115" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G115" s="45"/>
+      <c r="F115" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G115" s="43"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="45"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="53" t="s">
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D116" s="50" t="s">
+      <c r="D116" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="E116" s="50" t="s">
+      <c r="E116" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F116" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G116" s="45"/>
+      <c r="F116" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G116" s="43"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="45"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="53" t="s">
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="D117" s="50" t="s">
+      <c r="D117" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E117" s="50" t="s">
+      <c r="E117" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F117" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G117" s="45"/>
+      <c r="F117" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G117" s="43"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="45"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="53" t="s">
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D118" s="50" t="s">
+      <c r="D118" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E118" s="50" t="s">
+      <c r="E118" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F118" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G118" s="45"/>
+      <c r="F118" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G118" s="43"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="53" t="s">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="D119" s="50" t="s">
+      <c r="D119" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E119" s="50" t="s">
+      <c r="E119" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F119" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G119" s="45"/>
+      <c r="F119" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G119" s="43"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="45"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="53" t="s">
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D120" s="50" t="s">
+      <c r="D120" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E120" s="50" t="s">
+      <c r="E120" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F120" s="79"/>
-      <c r="G120" s="45"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="43"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="53" t="s">
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="D121" s="50" t="s">
+      <c r="D121" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E121" s="50" t="s">
+      <c r="E121" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="F121" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G121" s="45"/>
+      <c r="F121" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G121" s="43"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="45"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="53" t="s">
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E122" s="50" t="s">
+      <c r="E122" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F122" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G122" s="45"/>
+      <c r="F122" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G122" s="43"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="45"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="53" t="s">
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E123" s="50" t="s">
+      <c r="E123" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F123" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G123" s="45"/>
+      <c r="F123" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G123" s="43"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="53" t="s">
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D124" s="50" t="s">
+      <c r="D124" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F124" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G124" s="45"/>
+      <c r="F124" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G124" s="43"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="45"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="53" t="s">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E125" s="50" t="s">
+      <c r="E125" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F125" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G125" s="45"/>
+      <c r="F125" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G125" s="43"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="45"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="53" t="s">
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="D126" s="50" t="s">
+      <c r="D126" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E126" s="50" t="s">
+      <c r="E126" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F126" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G126" s="45"/>
+      <c r="F126" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G126" s="43"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="45"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="53" t="s">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D127" s="50" t="s">
+      <c r="D127" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E127" s="50" t="s">
+      <c r="E127" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F127" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G127" s="45"/>
+      <c r="F127" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G127" s="43"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="45"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="53" t="s">
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D128" s="50" t="s">
+      <c r="D128" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E128" s="50" t="s">
+      <c r="E128" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F128" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G128" s="45"/>
+      <c r="F128" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G128" s="43"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="45"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="53" t="s">
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E129" s="50" t="s">
+      <c r="E129" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="F129" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G129" s="45"/>
+      <c r="F129" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G129" s="43"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="45"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="53" t="s">
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D130" s="50" t="s">
+      <c r="D130" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E130" s="50" t="s">
+      <c r="E130" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F130" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G130" s="45"/>
+      <c r="F130" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G130" s="43"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="45"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="53" t="s">
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D131" s="50" t="s">
+      <c r="D131" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E131" s="50" t="s">
+      <c r="E131" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F131" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G131" s="45"/>
+      <c r="F131" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G131" s="43"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="45"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="53" t="s">
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D132" s="50" t="s">
+      <c r="D132" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E132" s="50" t="s">
+      <c r="E132" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F132" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G132" s="45"/>
+      <c r="F132" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G132" s="43"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="45"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="53" t="s">
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="50" t="s">
+      <c r="D133" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E133" s="50" t="s">
+      <c r="E133" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F133" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G133" s="45"/>
+      <c r="F133" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G133" s="43"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="61"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="60" t="s">
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="78"/>
-      <c r="G134" s="45"/>
+      <c r="D134" s="48"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="43"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="53" t="s">
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="78"/>
-      <c r="G135" s="45"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="76"/>
+      <c r="G135" s="43"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="53" t="s">
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="45"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="43"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="53" t="s">
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="45"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="43"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="53" t="s">
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="78"/>
-      <c r="G138" s="45"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="43"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="45"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="53" t="s">
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="45"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="43"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="53" t="s">
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="78"/>
-      <c r="G140" s="45"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="43"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="45"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="53" t="s">
+      <c r="A141" s="43"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="78"/>
-      <c r="G141" s="45"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="43"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="45"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="53" t="s">
+      <c r="A142" s="43"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="45"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="43"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="45"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="53" t="s">
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="45"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="43"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="45"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="53" t="s">
+      <c r="A144" s="43"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="45"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="76"/>
+      <c r="G144" s="43"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="53" t="s">
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="D145" s="50" t="s">
+      <c r="D145" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E145" s="50" t="s">
+      <c r="E145" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="F145" s="78"/>
-      <c r="G145" s="45"/>
+      <c r="F145" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="G145" s="43"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="53" t="s">
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="E146" s="50" t="s">
+      <c r="E146" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="F146" s="78"/>
-      <c r="G146" s="45"/>
+      <c r="F146" s="76"/>
+      <c r="G146" s="43"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="45"/>
-      <c r="B147" s="45"/>
-      <c r="C147" s="53" t="s">
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D147" s="50" t="s">
+      <c r="D147" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="E147" s="50" t="s">
+      <c r="E147" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="F147" s="78"/>
-      <c r="G147" s="45"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="43"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="53" t="s">
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="D148" s="50" t="s">
+      <c r="D148" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="E148" s="50" t="s">
+      <c r="E148" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="F148" s="78"/>
-      <c r="G148" s="45"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="43"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="45"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="53" t="s">
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="D149" s="50"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="45"/>
+      <c r="D149" s="48"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="43"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="45"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="53" t="s">
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="D150" s="50" t="s">
+      <c r="D150" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="E150" s="50" t="s">
+      <c r="E150" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="F150" s="78"/>
-      <c r="G150" s="45"/>
+      <c r="F150" s="76"/>
+      <c r="G150" s="43"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="45"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="53" t="s">
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="D151" s="50">
+      <c r="D151" s="48">
         <v>1</v>
       </c>
-      <c r="E151" s="50">
+      <c r="E151" s="48">
         <v>0</v>
       </c>
-      <c r="F151" s="78"/>
-      <c r="G151" s="45"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="43"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="45"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="53" t="s">
+      <c r="A152" s="43"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="D152" s="50">
+      <c r="D152" s="48">
         <v>0</v>
       </c>
-      <c r="E152" s="50">
+      <c r="E152" s="48">
         <v>0</v>
       </c>
-      <c r="F152" s="78"/>
-      <c r="G152" s="45"/>
+      <c r="F152" s="76"/>
+      <c r="G152" s="43"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="45"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="53" t="s">
+      <c r="A153" s="43"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D153" s="50">
+      <c r="D153" s="48">
         <v>1</v>
       </c>
-      <c r="E153" s="50">
+      <c r="E153" s="48">
         <v>0</v>
       </c>
-      <c r="F153" s="78"/>
-      <c r="G153" s="45"/>
+      <c r="F153" s="76"/>
+      <c r="G153" s="43"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="45"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="53" t="s">
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D154" s="50">
+      <c r="D154" s="48">
         <v>2</v>
       </c>
-      <c r="E154" s="50">
+      <c r="E154" s="48">
         <v>0</v>
       </c>
-      <c r="F154" s="78"/>
-      <c r="G154" s="45"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="43"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="45"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="53" t="s">
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="D155" s="50">
+      <c r="D155" s="48">
         <v>1</v>
       </c>
-      <c r="E155" s="50">
+      <c r="E155" s="48">
         <v>0</v>
       </c>
-      <c r="F155" s="78"/>
-      <c r="G155" s="45"/>
+      <c r="F155" s="76"/>
+      <c r="G155" s="43"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="45"/>
-      <c r="B156" s="45"/>
-      <c r="C156" s="53" t="s">
+      <c r="A156" s="43"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="D156" s="50">
+      <c r="D156" s="48">
         <v>0</v>
       </c>
-      <c r="E156" s="50">
+      <c r="E156" s="48">
         <v>0</v>
       </c>
-      <c r="F156" s="78"/>
-      <c r="G156" s="45"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="43"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="45"/>
-      <c r="B157" s="45"/>
-      <c r="C157" s="53" t="s">
+      <c r="A157" s="43"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="D157" s="50">
+      <c r="D157" s="48">
         <v>1</v>
       </c>
-      <c r="E157" s="50">
+      <c r="E157" s="48">
         <v>0</v>
       </c>
-      <c r="F157" s="78"/>
-      <c r="G157" s="45"/>
+      <c r="F157" s="76"/>
+      <c r="G157" s="43"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="45"/>
-      <c r="B158" s="45"/>
-      <c r="C158" s="53" t="s">
+      <c r="A158" s="43"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D158" s="50">
+      <c r="D158" s="48">
         <v>0</v>
       </c>
-      <c r="E158" s="50">
+      <c r="E158" s="48">
         <v>0</v>
       </c>
-      <c r="F158" s="78"/>
-      <c r="G158" s="45"/>
+      <c r="F158" s="76"/>
+      <c r="G158" s="43"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="45"/>
-      <c r="B159" s="45"/>
-      <c r="C159" s="53" t="s">
+      <c r="A159" s="43"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="D159" s="50">
+      <c r="D159" s="48">
         <v>2</v>
       </c>
-      <c r="E159" s="50">
+      <c r="E159" s="48">
         <v>0</v>
       </c>
-      <c r="F159" s="78"/>
-      <c r="G159" s="45"/>
+      <c r="F159" s="76"/>
+      <c r="G159" s="43"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="45"/>
-      <c r="B160" s="45"/>
-      <c r="C160" s="53" t="s">
+      <c r="A160" s="43"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D160" s="50" t="s">
+      <c r="D160" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="E160" s="50" t="s">
+      <c r="E160" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="F160" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G160" s="45"/>
+      <c r="F160" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G160" s="43"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="45"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="53" t="s">
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="D161" s="50" t="s">
+      <c r="D161" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="E161" s="50" t="s">
+      <c r="E161" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="F161" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G161" s="45"/>
+      <c r="F161" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G161" s="43"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="45"/>
-      <c r="B162" s="45"/>
-      <c r="C162" s="53" t="s">
+      <c r="A162" s="43"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D162" s="50" t="s">
+      <c r="D162" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="E162" s="50" t="s">
+      <c r="E162" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="F162" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G162" s="45" t="s">
-        <v>608</v>
+      <c r="F162" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G162" s="43" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="46" t="s">
+      <c r="A163" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C163" s="59" t="s">
+      <c r="C163" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D163" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="E163" s="50" t="s">
+      <c r="E163" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="F163" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="G163" s="45" t="s">
-        <v>597</v>
+      <c r="F163" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="G163" s="43" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="45"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="53" t="s">
+      <c r="A164" s="43"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D164" s="50"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="78"/>
-      <c r="G164" s="45"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="76"/>
+      <c r="G164" s="43"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="45"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="53" t="s">
+      <c r="A165" s="43"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="D165" s="50"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="78"/>
-      <c r="G165" s="45"/>
+      <c r="D165" s="48"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="76"/>
+      <c r="G165" s="43"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="53" t="s">
+      <c r="A166" s="43"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D166" s="50"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="78"/>
-      <c r="G166" s="45"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="43"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="45"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="53" t="s">
+      <c r="A167" s="43"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="D167" s="50"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="78"/>
-      <c r="G167" s="45"/>
+      <c r="D167" s="48"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="43"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="45"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="53" t="s">
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="D168" s="50"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="78"/>
-      <c r="G168" s="45"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="76"/>
+      <c r="G168" s="43"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="45"/>
-      <c r="B169" s="45"/>
-      <c r="C169" s="53" t="s">
+      <c r="A169" s="43"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D169" s="50"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="78"/>
-      <c r="G169" s="45"/>
+      <c r="D169" s="48"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="43"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="45"/>
-      <c r="B170" s="45"/>
-      <c r="C170" s="53" t="s">
+      <c r="A170" s="43"/>
+      <c r="B170" s="43"/>
+      <c r="C170" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="78"/>
-      <c r="G170" s="45"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="76"/>
+      <c r="G170" s="43"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="46" t="s">
+      <c r="A171" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C171" s="63" t="s">
+      <c r="C171" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="D171" s="50" t="s">
+      <c r="D171" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E171" s="50" t="s">
+      <c r="E171" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F171" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G171" s="45"/>
+      <c r="F171" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G171" s="43"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="61"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="64" t="s">
+      <c r="A172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="78"/>
-      <c r="G172" s="45"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="43"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="61"/>
-      <c r="B173" s="61"/>
-      <c r="C173" s="64" t="s">
+      <c r="A173" s="59"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="D173" s="50"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="78"/>
-      <c r="G173" s="45"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="43"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="46" t="s">
+      <c r="A174" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C174" s="63" t="s">
+      <c r="C174" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="D174" s="50" t="s">
+      <c r="D174" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E174" s="50" t="s">
+      <c r="E174" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F174" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G174" s="45"/>
+      <c r="F174" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G174" s="43"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="61"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="64" t="s">
+      <c r="A175" s="59"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="D175" s="50"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="78"/>
-      <c r="G175" s="45"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="76"/>
+      <c r="G175" s="43"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="61"/>
-      <c r="B176" s="61"/>
-      <c r="C176" s="64" t="s">
+      <c r="A176" s="59"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="D176" s="50"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="78"/>
-      <c r="G176" s="45"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="76"/>
+      <c r="G176" s="43"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="46" t="s">
+      <c r="A177" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C177" s="63" t="s">
+      <c r="C177" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="D177" s="50" t="s">
+      <c r="D177" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E177" s="50" t="s">
+      <c r="E177" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F177" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G177" s="45"/>
+      <c r="F177" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G177" s="43"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="61"/>
-      <c r="B178" s="61"/>
-      <c r="C178" s="64" t="s">
+      <c r="A178" s="59"/>
+      <c r="B178" s="59"/>
+      <c r="C178" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="D178" s="50"/>
-      <c r="E178" s="50"/>
-      <c r="F178" s="78"/>
-      <c r="G178" s="45"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="43"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="61"/>
-      <c r="B179" s="61"/>
-      <c r="C179" s="64" t="s">
+      <c r="A179" s="59"/>
+      <c r="B179" s="59"/>
+      <c r="C179" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="78"/>
-      <c r="G179" s="45"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="76"/>
+      <c r="G179" s="43"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="46" t="s">
+      <c r="A180" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C180" s="63" t="s">
+      <c r="C180" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="D180" s="50" t="s">
+      <c r="D180" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E180" s="50" t="s">
+      <c r="E180" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F180" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G180" s="45"/>
+      <c r="F180" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G180" s="43"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="46" t="s">
+      <c r="A181" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B181" s="46" t="s">
+      <c r="B181" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C181" s="63" t="s">
+      <c r="C181" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="D181" s="50" t="s">
+      <c r="D181" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E181" s="50" t="s">
+      <c r="E181" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F181" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G181" s="45"/>
+      <c r="F181" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G181" s="43"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="46" t="s">
+      <c r="A182" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B182" s="46" t="s">
+      <c r="B182" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C182" s="63" t="s">
+      <c r="C182" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="D182" s="50" t="s">
+      <c r="D182" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E182" s="50" t="s">
+      <c r="E182" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F182" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G182" s="45"/>
+      <c r="F182" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G182" s="43"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="46" t="s">
+      <c r="A183" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C183" s="63" t="s">
+      <c r="C183" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="D183" s="50" t="s">
+      <c r="D183" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E183" s="50" t="s">
+      <c r="E183" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="F183" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G183" s="45"/>
+      <c r="F183" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G183" s="43"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="46" t="s">
+      <c r="A184" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C184" s="63" t="s">
+      <c r="C184" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="D184" s="50" t="s">
+      <c r="D184" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E184" s="50" t="s">
+      <c r="E184" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F184" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G184" s="45"/>
+      <c r="F184" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G184" s="43"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="46" t="s">
+      <c r="A185" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B185" s="46" t="s">
+      <c r="B185" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C185" s="63" t="s">
+      <c r="C185" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="D185" s="50" t="s">
+      <c r="D185" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E185" s="50" t="s">
+      <c r="E185" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F185" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G185" s="45"/>
+      <c r="F185" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G185" s="43"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B186" s="46" t="s">
+      <c r="B186" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C186" s="63" t="s">
+      <c r="C186" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="D186" s="50" t="s">
+      <c r="D186" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E186" s="50" t="s">
+      <c r="E186" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F186" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G186" s="45"/>
+      <c r="F186" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G186" s="43"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="46" t="s">
+      <c r="A187" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B187" s="46" t="s">
+      <c r="B187" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C187" s="63" t="s">
+      <c r="C187" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="D187" s="50" t="s">
+      <c r="D187" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E187" s="50" t="s">
+      <c r="E187" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="F187" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G187" s="45"/>
+      <c r="F187" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G187" s="43"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="46" t="s">
+      <c r="A188" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C188" s="63" t="s">
+      <c r="C188" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="D188" s="50" t="s">
+      <c r="D188" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E188" s="50" t="s">
+      <c r="E188" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="F188" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G188" s="45"/>
+      <c r="F188" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G188" s="43"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="46" t="s">
+      <c r="A189" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B189" s="46" t="s">
+      <c r="B189" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C189" s="63" t="s">
+      <c r="C189" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="D189" s="50" t="s">
+      <c r="D189" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E189" s="50" t="s">
+      <c r="E189" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F189" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G189" s="45"/>
+      <c r="F189" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G189" s="43"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="46" t="s">
+      <c r="A190" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B190" s="46" t="s">
+      <c r="B190" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C190" s="63" t="s">
+      <c r="C190" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="D190" s="50" t="s">
+      <c r="D190" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="E190" s="50" t="s">
+      <c r="E190" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="F190" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G190" s="45"/>
+      <c r="F190" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G190" s="43"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="46" t="s">
+      <c r="A191" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="46" t="s">
+      <c r="B191" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C191" s="63" t="s">
+      <c r="C191" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="D191" s="50" t="s">
+      <c r="D191" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E191" s="50" t="s">
+      <c r="E191" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="F191" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G191" s="45"/>
+      <c r="F191" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G191" s="43"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="46" t="s">
+      <c r="B192" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C192" s="63" t="s">
+      <c r="C192" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="D192" s="50" t="s">
+      <c r="D192" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E192" s="50" t="s">
+      <c r="E192" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F192" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G192" s="45"/>
+      <c r="F192" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G192" s="43"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="46" t="s">
+      <c r="A193" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C193" s="63" t="s">
+      <c r="C193" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="D193" s="50" t="s">
+      <c r="D193" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E193" s="50" t="s">
+      <c r="E193" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F193" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G193" s="45"/>
+      <c r="F193" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G193" s="43"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="46" t="s">
+      <c r="A194" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C194" s="63" t="s">
+      <c r="C194" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="D194" s="50" t="s">
+      <c r="D194" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="50" t="s">
+      <c r="E194" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="F194" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G194" s="45"/>
+      <c r="F194" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G194" s="43"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="46" t="s">
+      <c r="A195" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B195" s="46" t="s">
+      <c r="B195" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C195" s="63" t="s">
+      <c r="C195" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="D195" s="50" t="s">
+      <c r="D195" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="E195" s="50" t="s">
+      <c r="E195" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="F195" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G195" s="45"/>
+      <c r="F195" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G195" s="43"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="46" t="s">
+      <c r="A196" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B196" s="46" t="s">
+      <c r="B196" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C196" s="63" t="s">
+      <c r="C196" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="D196" s="50" t="s">
+      <c r="D196" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E196" s="50" t="s">
+      <c r="E196" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F196" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G196" s="45"/>
+      <c r="F196" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G196" s="43"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="46" t="s">
+      <c r="A197" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C197" s="65" t="s">
+      <c r="C197" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50" t="s">
+      <c r="D197" s="48"/>
+      <c r="E197" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="F197" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G197" s="45"/>
+      <c r="F197" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G197" s="43"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="46" t="s">
+      <c r="A198" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B198" s="46" t="s">
+      <c r="B198" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C198" s="65" t="s">
+      <c r="C198" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="D198" s="50" t="s">
+      <c r="D198" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E198" s="50" t="s">
+      <c r="E198" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F198" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G198" s="45"/>
+      <c r="F198" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G198" s="43"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="45"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="66" t="s">
+      <c r="A199" s="43"/>
+      <c r="B199" s="43"/>
+      <c r="C199" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="D199" s="50" t="s">
+      <c r="D199" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="E199" s="50" t="s">
+      <c r="E199" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="F199" s="78"/>
-      <c r="G199" s="45"/>
+      <c r="F199" s="76"/>
+      <c r="G199" s="43"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="45"/>
-      <c r="B200" s="45"/>
-      <c r="C200" s="66" t="s">
+      <c r="A200" s="43"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="D200" s="50"/>
-      <c r="E200" s="50"/>
-      <c r="F200" s="78"/>
-      <c r="G200" s="45"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="76"/>
+      <c r="G200" s="43"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="45"/>
-      <c r="B201" s="45"/>
-      <c r="C201" s="66" t="s">
+      <c r="A201" s="43"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="D201" s="54">
+      <c r="D201" s="52">
         <v>42865</v>
       </c>
-      <c r="E201" s="54">
+      <c r="E201" s="52">
         <v>42865</v>
       </c>
-      <c r="F201" s="78"/>
-      <c r="G201" s="45"/>
+      <c r="F201" s="76"/>
+      <c r="G201" s="43"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="61"/>
-      <c r="B202" s="61"/>
-      <c r="C202" s="67" t="s">
+      <c r="A202" s="59"/>
+      <c r="B202" s="59"/>
+      <c r="C202" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="D202" s="45" t="s">
+      <c r="D202" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="E202" s="45" t="s">
+      <c r="E202" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="F202" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G202" s="45" t="s">
-        <v>611</v>
+      <c r="F202" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G202" s="43" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="61"/>
-      <c r="B203" s="61"/>
-      <c r="C203" s="68" t="s">
+      <c r="A203" s="59"/>
+      <c r="B203" s="59"/>
+      <c r="C203" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="D203" s="45" t="s">
+      <c r="D203" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="E203" s="45" t="s">
+      <c r="E203" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="F203" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G203" s="45"/>
+      <c r="F203" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G203" s="43"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="69"/>
-      <c r="B204" s="70"/>
-      <c r="C204" s="71" t="s">
+      <c r="A204" s="67"/>
+      <c r="B204" s="68"/>
+      <c r="C204" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="D204" s="72" t="s">
+      <c r="D204" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="E204" s="61" t="s">
+      <c r="E204" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="F204" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G204" s="45"/>
+      <c r="F204" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G204" s="43"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="46" t="s">
+      <c r="A205" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B205" s="46" t="s">
+      <c r="B205" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C205" s="46" t="s">
+      <c r="C205" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="D205" s="73">
+      <c r="D205" s="71">
         <v>3</v>
       </c>
-      <c r="E205" s="73">
+      <c r="E205" s="71">
         <v>1</v>
       </c>
-      <c r="F205" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G205" s="45" t="s">
-        <v>609</v>
+      <c r="F205" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G205" s="43" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="74" t="s">
+      <c r="A206" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B206" s="75" t="s">
+      <c r="B206" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="C206" s="65" t="s">
+      <c r="C206" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="D206" s="73">
+      <c r="D206" s="71">
         <v>3</v>
       </c>
-      <c r="E206" s="73">
+      <c r="E206" s="71">
         <v>1</v>
       </c>
-      <c r="F206" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G206" s="45"/>
+      <c r="F206" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G206" s="43"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="46" t="s">
+      <c r="A207" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B207" s="46" t="s">
+      <c r="B207" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C207" s="59" t="s">
+      <c r="C207" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="D207" s="73">
+      <c r="D207" s="71">
         <v>1</v>
       </c>
-      <c r="E207" s="73">
+      <c r="E207" s="71">
         <v>1</v>
       </c>
-      <c r="F207" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G207" s="45"/>
+      <c r="F207" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G207" s="43"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="46" t="s">
+      <c r="A208" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C208" s="59" t="s">
+      <c r="C208" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D208" s="73">
+      <c r="D208" s="71">
         <v>1</v>
       </c>
-      <c r="E208" s="73">
+      <c r="E208" s="71">
         <v>1</v>
       </c>
-      <c r="F208" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G208" s="45"/>
+      <c r="F208" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G208" s="43"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="46" t="s">
+      <c r="A209" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B209" s="46" t="s">
+      <c r="B209" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C209" s="59" t="s">
+      <c r="C209" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="D209" s="73">
+      <c r="D209" s="71">
         <v>1</v>
       </c>
-      <c r="E209" s="73">
+      <c r="E209" s="71">
         <v>1</v>
       </c>
-      <c r="F209" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G209" s="45"/>
+      <c r="F209" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G209" s="43"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="46" t="s">
+      <c r="A210" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="46" t="s">
+      <c r="B210" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C210" s="59" t="s">
+      <c r="C210" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D210" s="73">
+      <c r="D210" s="71">
         <v>1</v>
       </c>
-      <c r="E210" s="73">
+      <c r="E210" s="71">
         <v>1</v>
       </c>
-      <c r="F210" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G210" s="45"/>
+      <c r="F210" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G210" s="43"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="46" t="s">
+      <c r="A211" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B211" s="46" t="s">
+      <c r="B211" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C211" s="59" t="s">
+      <c r="C211" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="D211" s="73">
+      <c r="D211" s="71">
         <v>1</v>
       </c>
-      <c r="E211" s="73">
+      <c r="E211" s="71">
         <v>1</v>
       </c>
-      <c r="F211" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G211" s="45"/>
+      <c r="F211" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G211" s="43"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="46" t="s">
+      <c r="A212" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B212" s="46" t="s">
+      <c r="B212" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C212" s="59" t="s">
+      <c r="C212" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D212" s="73">
+      <c r="D212" s="71">
         <v>1</v>
       </c>
-      <c r="E212" s="73">
+      <c r="E212" s="71">
         <v>1</v>
       </c>
-      <c r="F212" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G212" s="45"/>
+      <c r="F212" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G212" s="43"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="46" t="s">
+      <c r="A213" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B213" s="46" t="s">
+      <c r="B213" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C213" s="46" t="s">
+      <c r="C213" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="D213" s="76">
+      <c r="D213" s="74">
         <v>1</v>
       </c>
-      <c r="E213" s="76">
+      <c r="E213" s="74">
         <v>1</v>
       </c>
-      <c r="F213" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G213" s="45" t="s">
-        <v>610</v>
+      <c r="F213" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G213" s="43" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="74" t="s">
+      <c r="A214" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="B214" s="75" t="s">
+      <c r="B214" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="C214" s="65" t="s">
+      <c r="C214" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="D214" s="76">
+      <c r="D214" s="74">
         <v>1</v>
       </c>
-      <c r="E214" s="76">
+      <c r="E214" s="74">
         <v>1</v>
       </c>
-      <c r="F214" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="G214" s="45"/>
+      <c r="F214" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G214" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
